--- a/[Pacemaker] 1.Story Building Master File.xlsx
+++ b/[Pacemaker] 1.Story Building Master File.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hgh85\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hgh85\OneDrive\바탕 화면\portfolio\interview pacemaker\interview-pacemaker\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="102">
   <si>
     <t>Passion</t>
   </si>
@@ -37,24 +37,6 @@
   </si>
   <si>
     <t>어디서 어떻게 누구와 무엇을 하는것이 즐겁고 행복한지</t>
-  </si>
-  <si>
-    <t>여행</t>
-  </si>
-  <si>
-    <t>글쓰기</t>
-  </si>
-  <si>
-    <t>대화하기</t>
-  </si>
-  <si>
-    <t>새로운 문화</t>
-  </si>
-  <si>
-    <t>커뮤니티</t>
-  </si>
-  <si>
-    <t>돕기, 자선</t>
   </si>
   <si>
     <t>후천적으로 배운것, 자신있는 일</t>
@@ -466,6 +448,22 @@
   </si>
   <si>
     <t>이전 직업 port to port 까지의 항해 계획 수립 및 계획 완료까지 매니지먼트</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>코딩 테스트</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>코칭</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>새로운 기술 및 제품 개발(시간을 쏟고 나면 성취감 얻는것들)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -645,6 +643,14 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -672,14 +678,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -987,7 +985,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -999,14 +997,14 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="30" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1014,205 +1012,201 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="24"/>
+      <c r="A3" s="30"/>
       <c r="B3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="24"/>
+      <c r="A4" s="30"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="24"/>
-      <c r="B5" s="30" t="s">
+      <c r="A5" s="30"/>
+      <c r="B5" s="24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="30"/>
+      <c r="B6" s="24" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="30"/>
+      <c r="B7" s="24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="30"/>
+      <c r="B8" s="24" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="30"/>
+      <c r="B9" s="21"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="30"/>
+      <c r="B10" s="21"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="27"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="27"/>
+      <c r="B14" s="24" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="27"/>
+      <c r="B15" s="24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="18.75">
+      <c r="A16" s="27"/>
+      <c r="B16" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="27"/>
+      <c r="B17" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="27"/>
+      <c r="B18" s="24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="18.75">
+      <c r="A19" s="27"/>
+      <c r="B19" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="24"/>
-      <c r="B6" s="30" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="24"/>
-      <c r="B7" s="30" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="24"/>
-      <c r="B8" s="30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="24"/>
-      <c r="B9" s="30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="24"/>
-      <c r="B10" s="30" t="s">
+    <row r="22" spans="1:3">
+      <c r="A22" s="28"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="28"/>
+      <c r="B23" s="24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="28"/>
+      <c r="B24" s="24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="28"/>
+      <c r="B25" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="28"/>
+      <c r="B26" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="28"/>
+      <c r="B27" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="28"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="21"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="21"/>
-      <c r="B14" s="33" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="21"/>
-      <c r="B15" s="33" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="18.75">
-      <c r="A16" s="21"/>
-      <c r="B16" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="21"/>
-      <c r="B17" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="C17" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="21"/>
-      <c r="B18" s="33" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="18.75">
-      <c r="A19" s="21"/>
-      <c r="B19" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="C19" s="31" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="22"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="22"/>
-      <c r="B23" s="33" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="22"/>
-      <c r="B24" s="33" t="s">
+    <row r="31" spans="1:3">
+      <c r="A31" s="29"/>
+    </row>
+    <row r="32" spans="1:3" ht="18.75">
+      <c r="A32" s="29"/>
+      <c r="B32" s="22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="18">
+      <c r="A33" s="29"/>
+      <c r="B33" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="18.75">
+      <c r="A34" s="29"/>
+      <c r="B34" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="22"/>
-      <c r="B25" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="C25" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="22"/>
-      <c r="B26" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="C26" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="22"/>
-      <c r="B27" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="C27" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="22"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="23"/>
-    </row>
-    <row r="32" spans="1:3" ht="18.75">
-      <c r="A32" s="23"/>
-      <c r="B32" s="31" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="18">
-      <c r="A33" s="23"/>
-      <c r="B33" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="C33" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="18.75">
-      <c r="A34" s="23"/>
-      <c r="B34" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="C34" t="s">
-        <v>86</v>
-      </c>
-    </row>
     <row r="35" spans="1:3" ht="18.75">
-      <c r="A35" s="23"/>
-      <c r="B35" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="C35" s="31" t="s">
-        <v>84</v>
+      <c r="A35" s="29"/>
+      <c r="B35" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="23"/>
+      <c r="A36" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1248,1225 +1242,1225 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="C2" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17.45" customHeight="1">
+      <c r="A4" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="32"/>
+      <c r="B5" s="31"/>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6" s="31"/>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" s="31"/>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8" s="31"/>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="B9" s="31"/>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="B10" s="31"/>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="B11" s="31"/>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="B12" s="31"/>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="B13" s="31"/>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="B14" s="31"/>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="B15" s="31"/>
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="B16" s="31"/>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="31"/>
+      <c r="C17" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="31"/>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="31"/>
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="31"/>
+      <c r="C20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="31"/>
+      <c r="C21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="31"/>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="31"/>
+      <c r="C23" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="31"/>
+      <c r="C24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="31"/>
+      <c r="C25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="31"/>
+      <c r="C26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="31"/>
+      <c r="C27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="31"/>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="31"/>
+      <c r="C29" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="31"/>
+      <c r="C30" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" t="s">
         <v>50</v>
       </c>
-      <c r="E3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="17.45" customHeight="1">
-      <c r="A4" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="F30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" s="31"/>
+      <c r="C31" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" t="s">
+        <v>45</v>
+      </c>
+      <c r="E31" t="s">
+        <v>55</v>
+      </c>
+      <c r="F31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="31"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="B33" s="31"/>
+      <c r="C33" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="B34" s="31"/>
+      <c r="C34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" t="s">
+        <v>55</v>
+      </c>
+      <c r="E34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="B35" s="31"/>
+      <c r="C35" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" t="s">
         <v>50</v>
       </c>
-      <c r="E4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="26"/>
-      <c r="B5" s="25"/>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E35" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="B36" s="31"/>
+      <c r="C36" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36" t="s">
         <v>55</v>
       </c>
-      <c r="E5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="B6" s="25"/>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="B7" s="25"/>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="B8" s="25"/>
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="B9" s="25"/>
-      <c r="C9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="B10" s="25"/>
-      <c r="C10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="B11" s="25"/>
-      <c r="C11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="B12" s="25"/>
-      <c r="C12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="B13" s="25"/>
-      <c r="C13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="B14" s="25"/>
-      <c r="C14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="B15" s="25"/>
-      <c r="C15" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="B16" s="25"/>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="25"/>
-      <c r="C17" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="25"/>
-      <c r="C18" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" t="s">
-        <v>53</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="E36" t="s">
+        <v>45</v>
+      </c>
+      <c r="F36" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="25"/>
-      <c r="C19" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="25"/>
-      <c r="C20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="25"/>
-      <c r="C21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="B22" s="25"/>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="B23" s="25"/>
-      <c r="C23" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="25"/>
-      <c r="C24" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6">
-      <c r="B25" s="25"/>
-      <c r="C25" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="B26" s="25"/>
-      <c r="C26" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="B27" s="25"/>
-      <c r="C27" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6">
-      <c r="B28" s="25"/>
-    </row>
-    <row r="29" spans="2:6">
-      <c r="B29" s="25"/>
-      <c r="C29" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6">
-      <c r="B30" s="25"/>
-      <c r="C30" t="s">
-        <v>45</v>
-      </c>
-      <c r="D30" t="s">
-        <v>61</v>
-      </c>
-      <c r="E30" t="s">
-        <v>56</v>
-      </c>
-      <c r="F30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6">
-      <c r="B31" s="25"/>
-      <c r="C31" t="s">
-        <v>46</v>
-      </c>
-      <c r="D31" t="s">
-        <v>51</v>
-      </c>
-      <c r="E31" t="s">
-        <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6">
-      <c r="B32" s="25"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="B33" s="25"/>
-      <c r="C33" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="B34" s="25"/>
-      <c r="C34" t="s">
-        <v>38</v>
-      </c>
-      <c r="D34" t="s">
-        <v>61</v>
-      </c>
-      <c r="E34" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="B35" s="25"/>
-      <c r="C35" t="s">
-        <v>40</v>
-      </c>
-      <c r="D35" t="s">
-        <v>56</v>
-      </c>
-      <c r="E35" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="B36" s="25"/>
-      <c r="C36" t="s">
-        <v>39</v>
-      </c>
-      <c r="D36" t="s">
-        <v>61</v>
-      </c>
-      <c r="E36" t="s">
-        <v>51</v>
-      </c>
-      <c r="F36" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="C39" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" t="s">
         <v>19</v>
       </c>
-      <c r="B40" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
+        <v>44</v>
+      </c>
+      <c r="E40" t="s">
+        <v>45</v>
+      </c>
+      <c r="F40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41" t="s">
+        <v>44</v>
+      </c>
+      <c r="E41" t="s">
+        <v>47</v>
+      </c>
+      <c r="F41" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="32"/>
+      <c r="B42" s="33"/>
+      <c r="C42" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" t="s">
+        <v>49</v>
+      </c>
+      <c r="E42" t="s">
+        <v>47</v>
+      </c>
+      <c r="F42" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="B43" s="33"/>
+      <c r="C43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" t="s">
+        <v>49</v>
+      </c>
+      <c r="E43" t="s">
+        <v>46</v>
+      </c>
+      <c r="F43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="B44" s="33"/>
+      <c r="C44" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44" t="s">
+        <v>50</v>
+      </c>
+      <c r="E44" t="s">
+        <v>49</v>
+      </c>
+      <c r="F44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="B45" s="33"/>
+      <c r="C45" t="s">
+        <v>24</v>
+      </c>
+      <c r="D45" t="s">
+        <v>51</v>
+      </c>
+      <c r="E45" t="s">
+        <v>47</v>
+      </c>
+      <c r="F45" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="B46" s="33"/>
+      <c r="C46" t="s">
         <v>25</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D46" t="s">
+        <v>52</v>
+      </c>
+      <c r="E46" t="s">
+        <v>47</v>
+      </c>
+      <c r="F46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="B47" s="33"/>
+      <c r="C47" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47" t="s">
         <v>50</v>
       </c>
-      <c r="E40" t="s">
-        <v>51</v>
-      </c>
-      <c r="F40" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="B41" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="C41" t="s">
-        <v>26</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="E47" t="s">
+        <v>47</v>
+      </c>
+      <c r="F47" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="B48" s="33"/>
+      <c r="C48" t="s">
+        <v>27</v>
+      </c>
+      <c r="D48" t="s">
+        <v>45</v>
+      </c>
+      <c r="E48" t="s">
+        <v>53</v>
+      </c>
+      <c r="F48" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6">
+      <c r="B49" s="33"/>
+      <c r="C49" t="s">
+        <v>28</v>
+      </c>
+      <c r="D49" t="s">
         <v>50</v>
       </c>
-      <c r="E41" t="s">
-        <v>53</v>
-      </c>
-      <c r="F41" t="s">
+      <c r="E49" t="s">
+        <v>47</v>
+      </c>
+      <c r="F49" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6">
+      <c r="B50" s="33"/>
+      <c r="C50" t="s">
+        <v>29</v>
+      </c>
+      <c r="D50" t="s">
+        <v>45</v>
+      </c>
+      <c r="E50" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6">
+      <c r="B51" s="33"/>
+      <c r="C51" t="s">
+        <v>30</v>
+      </c>
+      <c r="D51" t="s">
+        <v>45</v>
+      </c>
+      <c r="E51" t="s">
+        <v>47</v>
+      </c>
+      <c r="F51" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="26"/>
-      <c r="B42" s="27"/>
-      <c r="C42" t="s">
-        <v>27</v>
-      </c>
-      <c r="D42" t="s">
+    <row r="52" spans="2:6">
+      <c r="B52" s="33"/>
+      <c r="C52" t="s">
+        <v>59</v>
+      </c>
+      <c r="D52" t="s">
+        <v>45</v>
+      </c>
+      <c r="E52" t="s">
+        <v>47</v>
+      </c>
+      <c r="F52" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6">
+      <c r="B53" s="33"/>
+    </row>
+    <row r="54" spans="2:6">
+      <c r="B54" s="33"/>
+      <c r="C54" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6">
+      <c r="B55" s="33"/>
+      <c r="C55" t="s">
+        <v>33</v>
+      </c>
+      <c r="D55" t="s">
+        <v>50</v>
+      </c>
+      <c r="E55" t="s">
+        <v>47</v>
+      </c>
+      <c r="F55" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6">
+      <c r="B56" s="33"/>
+      <c r="C56" t="s">
+        <v>31</v>
+      </c>
+      <c r="D56" t="s">
         <v>55</v>
       </c>
-      <c r="E42" t="s">
-        <v>53</v>
-      </c>
-      <c r="F42" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="B43" s="27"/>
-      <c r="C43" t="s">
-        <v>28</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="E56" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6">
+      <c r="B57" s="33"/>
+      <c r="C57" t="s">
+        <v>34</v>
+      </c>
+      <c r="D57" t="s">
+        <v>50</v>
+      </c>
+      <c r="E57" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6">
+      <c r="B58" s="33"/>
+      <c r="C58" t="s">
+        <v>32</v>
+      </c>
+      <c r="D58" t="s">
         <v>55</v>
       </c>
-      <c r="E43" t="s">
-        <v>52</v>
-      </c>
-      <c r="F43" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="B44" s="27"/>
-      <c r="C44" t="s">
-        <v>29</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="E58" t="s">
+        <v>45</v>
+      </c>
+      <c r="F58" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6">
+      <c r="B59" s="33"/>
+    </row>
+    <row r="60" spans="2:6">
+      <c r="B60" s="33"/>
+      <c r="C60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6">
+      <c r="B61" s="33"/>
+      <c r="C61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D61" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6">
+      <c r="B62" s="33"/>
+      <c r="C62" t="s">
+        <v>36</v>
+      </c>
+      <c r="D62" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6">
+      <c r="B63" s="33"/>
+      <c r="C63" t="s">
+        <v>37</v>
+      </c>
+      <c r="D63" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6">
+      <c r="B64" s="33"/>
+      <c r="C64" t="s">
+        <v>38</v>
+      </c>
+      <c r="D64" t="s">
         <v>56</v>
       </c>
-      <c r="E44" t="s">
+    </row>
+    <row r="65" spans="1:6">
+      <c r="B65" s="33"/>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="B66" s="33"/>
+      <c r="C66" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="B67" s="33"/>
+      <c r="C67" t="s">
+        <v>39</v>
+      </c>
+      <c r="D67" t="s">
         <v>55</v>
       </c>
-      <c r="F44" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="B45" s="27"/>
-      <c r="C45" t="s">
-        <v>30</v>
-      </c>
-      <c r="D45" t="s">
-        <v>57</v>
-      </c>
-      <c r="E45" t="s">
-        <v>53</v>
-      </c>
-      <c r="F45" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="B46" s="27"/>
-      <c r="C46" t="s">
-        <v>31</v>
-      </c>
-      <c r="D46" t="s">
-        <v>58</v>
-      </c>
-      <c r="E46" t="s">
-        <v>53</v>
-      </c>
-      <c r="F46" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="B47" s="27"/>
-      <c r="C47" t="s">
+      <c r="E67" t="s">
+        <v>50</v>
+      </c>
+      <c r="F67" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="B68" s="33"/>
+      <c r="C68" t="s">
+        <v>40</v>
+      </c>
+      <c r="D68" t="s">
+        <v>45</v>
+      </c>
+      <c r="E68" t="s">
+        <v>55</v>
+      </c>
+      <c r="F68" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="B69" s="33"/>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="B70" s="33"/>
+      <c r="C70" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="B71" s="33"/>
+      <c r="C71" t="s">
         <v>32</v>
       </c>
-      <c r="D47" t="s">
-        <v>56</v>
-      </c>
-      <c r="E47" t="s">
-        <v>53</v>
-      </c>
-      <c r="F47" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="B48" s="27"/>
-      <c r="C48" t="s">
+      <c r="D71" t="s">
+        <v>55</v>
+      </c>
+      <c r="E71" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="B72" s="33"/>
+      <c r="C72" t="s">
+        <v>34</v>
+      </c>
+      <c r="D72" t="s">
+        <v>50</v>
+      </c>
+      <c r="E72" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="B73" s="33"/>
+      <c r="C73" t="s">
         <v>33</v>
       </c>
-      <c r="D48" t="s">
-        <v>51</v>
-      </c>
-      <c r="E48" t="s">
-        <v>59</v>
-      </c>
-      <c r="F48" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6">
-      <c r="B49" s="27"/>
-      <c r="C49" t="s">
-        <v>34</v>
-      </c>
-      <c r="D49" t="s">
-        <v>56</v>
-      </c>
-      <c r="E49" t="s">
-        <v>53</v>
-      </c>
-      <c r="F49" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6">
-      <c r="B50" s="27"/>
-      <c r="C50" t="s">
-        <v>35</v>
-      </c>
-      <c r="D50" t="s">
-        <v>51</v>
-      </c>
-      <c r="E50" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6">
-      <c r="B51" s="27"/>
-      <c r="C51" t="s">
-        <v>36</v>
-      </c>
-      <c r="D51" t="s">
-        <v>51</v>
-      </c>
-      <c r="E51" t="s">
-        <v>53</v>
-      </c>
-      <c r="F51" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6">
-      <c r="B52" s="27"/>
-      <c r="C52" t="s">
-        <v>65</v>
-      </c>
-      <c r="D52" t="s">
-        <v>51</v>
-      </c>
-      <c r="E52" t="s">
-        <v>53</v>
-      </c>
-      <c r="F52" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6">
-      <c r="B53" s="27"/>
-    </row>
-    <row r="54" spans="2:6">
-      <c r="B54" s="27"/>
-      <c r="C54" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6">
-      <c r="B55" s="27"/>
-      <c r="C55" t="s">
-        <v>39</v>
-      </c>
-      <c r="D55" t="s">
-        <v>56</v>
-      </c>
-      <c r="E55" t="s">
-        <v>53</v>
-      </c>
-      <c r="F55" t="s">
+      <c r="D73" t="s">
+        <v>55</v>
+      </c>
+      <c r="E73" t="s">
+        <v>45</v>
+      </c>
+      <c r="F73" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6">
-      <c r="B56" s="27"/>
-      <c r="C56" t="s">
-        <v>37</v>
-      </c>
-      <c r="D56" t="s">
-        <v>61</v>
-      </c>
-      <c r="E56" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6">
-      <c r="B57" s="27"/>
-      <c r="C57" t="s">
-        <v>40</v>
-      </c>
-      <c r="D57" t="s">
-        <v>56</v>
-      </c>
-      <c r="E57" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6">
-      <c r="B58" s="27"/>
-      <c r="C58" t="s">
-        <v>38</v>
-      </c>
-      <c r="D58" t="s">
-        <v>61</v>
-      </c>
-      <c r="E58" t="s">
-        <v>51</v>
-      </c>
-      <c r="F58" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6">
-      <c r="B59" s="27"/>
-    </row>
-    <row r="60" spans="2:6">
-      <c r="B60" s="27"/>
-      <c r="C60" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6">
-      <c r="B61" s="27"/>
-      <c r="C61" t="s">
-        <v>41</v>
-      </c>
-      <c r="D61" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6">
-      <c r="B62" s="27"/>
-      <c r="C62" t="s">
-        <v>42</v>
-      </c>
-      <c r="D62" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6">
-      <c r="B63" s="27"/>
-      <c r="C63" t="s">
-        <v>43</v>
-      </c>
-      <c r="D63" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6">
-      <c r="B64" s="27"/>
-      <c r="C64" t="s">
-        <v>44</v>
-      </c>
-      <c r="D64" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="B65" s="27"/>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="B66" s="27"/>
-      <c r="C66" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="B67" s="27"/>
-      <c r="C67" t="s">
-        <v>45</v>
-      </c>
-      <c r="D67" t="s">
-        <v>61</v>
-      </c>
-      <c r="E67" t="s">
-        <v>56</v>
-      </c>
-      <c r="F67" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="B68" s="27"/>
-      <c r="C68" t="s">
-        <v>46</v>
-      </c>
-      <c r="D68" t="s">
-        <v>51</v>
-      </c>
-      <c r="E68" t="s">
-        <v>61</v>
-      </c>
-      <c r="F68" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="B69" s="27"/>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="B70" s="27"/>
-      <c r="C70" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="B71" s="27"/>
-      <c r="C71" t="s">
-        <v>38</v>
-      </c>
-      <c r="D71" t="s">
-        <v>61</v>
-      </c>
-      <c r="E71" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="B72" s="27"/>
-      <c r="C72" t="s">
-        <v>40</v>
-      </c>
-      <c r="D72" t="s">
-        <v>56</v>
-      </c>
-      <c r="E72" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="B73" s="27"/>
-      <c r="C73" t="s">
-        <v>39</v>
-      </c>
-      <c r="D73" t="s">
-        <v>61</v>
-      </c>
-      <c r="E73" t="s">
-        <v>51</v>
-      </c>
-      <c r="F73" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="C75" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
+        <v>13</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C76" t="s">
         <v>19</v>
       </c>
-      <c r="B76" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
+        <v>44</v>
+      </c>
+      <c r="E76" t="s">
+        <v>45</v>
+      </c>
+      <c r="F76" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B77" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="C77" t="s">
+        <v>20</v>
+      </c>
+      <c r="D77" t="s">
+        <v>44</v>
+      </c>
+      <c r="E77" t="s">
+        <v>47</v>
+      </c>
+      <c r="F77" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="32"/>
+      <c r="B78" s="34"/>
+      <c r="C78" t="s">
+        <v>21</v>
+      </c>
+      <c r="D78" t="s">
+        <v>49</v>
+      </c>
+      <c r="E78" t="s">
+        <v>47</v>
+      </c>
+      <c r="F78" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="B79" s="34"/>
+      <c r="C79" t="s">
+        <v>22</v>
+      </c>
+      <c r="D79" t="s">
+        <v>49</v>
+      </c>
+      <c r="E79" t="s">
+        <v>46</v>
+      </c>
+      <c r="F79" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="B80" s="34"/>
+      <c r="C80" t="s">
+        <v>23</v>
+      </c>
+      <c r="D80" t="s">
+        <v>50</v>
+      </c>
+      <c r="E80" t="s">
+        <v>49</v>
+      </c>
+      <c r="F80" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6">
+      <c r="B81" s="34"/>
+      <c r="C81" t="s">
+        <v>24</v>
+      </c>
+      <c r="D81" t="s">
+        <v>51</v>
+      </c>
+      <c r="E81" t="s">
+        <v>47</v>
+      </c>
+      <c r="F81" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6">
+      <c r="B82" s="34"/>
+      <c r="C82" t="s">
         <v>25</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D82" t="s">
+        <v>52</v>
+      </c>
+      <c r="E82" t="s">
+        <v>47</v>
+      </c>
+      <c r="F82" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6">
+      <c r="B83" s="34"/>
+      <c r="C83" t="s">
+        <v>26</v>
+      </c>
+      <c r="D83" t="s">
         <v>50</v>
       </c>
-      <c r="E76" t="s">
-        <v>51</v>
-      </c>
-      <c r="F76" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="B77" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="C77" t="s">
-        <v>26</v>
-      </c>
-      <c r="D77" t="s">
+      <c r="E83" t="s">
+        <v>47</v>
+      </c>
+      <c r="F83" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6">
+      <c r="B84" s="34"/>
+      <c r="C84" t="s">
+        <v>27</v>
+      </c>
+      <c r="D84" t="s">
+        <v>45</v>
+      </c>
+      <c r="E84" t="s">
+        <v>53</v>
+      </c>
+      <c r="F84" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="85" spans="2:6">
+      <c r="B85" s="34"/>
+      <c r="C85" t="s">
+        <v>28</v>
+      </c>
+      <c r="D85" t="s">
         <v>50</v>
       </c>
-      <c r="E77" t="s">
-        <v>53</v>
-      </c>
-      <c r="F77" t="s">
+      <c r="E85" t="s">
+        <v>47</v>
+      </c>
+      <c r="F85" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="86" spans="2:6">
+      <c r="B86" s="34"/>
+      <c r="C86" t="s">
+        <v>29</v>
+      </c>
+      <c r="D86" t="s">
+        <v>45</v>
+      </c>
+      <c r="E86" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="87" spans="2:6">
+      <c r="B87" s="34"/>
+      <c r="C87" t="s">
+        <v>30</v>
+      </c>
+      <c r="D87" t="s">
+        <v>45</v>
+      </c>
+      <c r="E87" t="s">
+        <v>47</v>
+      </c>
+      <c r="F87" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="26"/>
-      <c r="B78" s="28"/>
-      <c r="C78" t="s">
-        <v>27</v>
-      </c>
-      <c r="D78" t="s">
+    <row r="88" spans="2:6">
+      <c r="B88" s="34"/>
+      <c r="C88" t="s">
+        <v>59</v>
+      </c>
+      <c r="D88" t="s">
+        <v>45</v>
+      </c>
+      <c r="E88" t="s">
+        <v>47</v>
+      </c>
+      <c r="F88" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="89" spans="2:6">
+      <c r="B89" s="34"/>
+    </row>
+    <row r="90" spans="2:6">
+      <c r="B90" s="34"/>
+      <c r="C90" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6">
+      <c r="B91" s="34"/>
+      <c r="C91" t="s">
+        <v>33</v>
+      </c>
+      <c r="D91" t="s">
+        <v>50</v>
+      </c>
+      <c r="E91" t="s">
+        <v>47</v>
+      </c>
+      <c r="F91" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6">
+      <c r="B92" s="34"/>
+      <c r="C92" t="s">
+        <v>31</v>
+      </c>
+      <c r="D92" t="s">
         <v>55</v>
       </c>
-      <c r="E78" t="s">
-        <v>53</v>
-      </c>
-      <c r="F78" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="B79" s="28"/>
-      <c r="C79" t="s">
-        <v>28</v>
-      </c>
-      <c r="D79" t="s">
+      <c r="E92" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="93" spans="2:6">
+      <c r="B93" s="34"/>
+      <c r="C93" t="s">
+        <v>34</v>
+      </c>
+      <c r="D93" t="s">
+        <v>50</v>
+      </c>
+      <c r="E93" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6">
+      <c r="B94" s="34"/>
+      <c r="C94" t="s">
+        <v>32</v>
+      </c>
+      <c r="D94" t="s">
         <v>55</v>
       </c>
-      <c r="E79" t="s">
-        <v>52</v>
-      </c>
-      <c r="F79" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="B80" s="28"/>
-      <c r="C80" t="s">
-        <v>29</v>
-      </c>
-      <c r="D80" t="s">
+      <c r="E94" t="s">
+        <v>45</v>
+      </c>
+      <c r="F94" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6">
+      <c r="B95" s="34"/>
+    </row>
+    <row r="96" spans="2:6">
+      <c r="B96" s="34"/>
+      <c r="C96" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6">
+      <c r="B97" s="34"/>
+      <c r="C97" t="s">
+        <v>35</v>
+      </c>
+      <c r="D97" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6">
+      <c r="B98" s="34"/>
+      <c r="C98" t="s">
+        <v>36</v>
+      </c>
+      <c r="D98" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6">
+      <c r="B99" s="34"/>
+      <c r="C99" t="s">
+        <v>37</v>
+      </c>
+      <c r="D99" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6">
+      <c r="B100" s="34"/>
+      <c r="C100" t="s">
+        <v>38</v>
+      </c>
+      <c r="D100" t="s">
         <v>56</v>
       </c>
-      <c r="E80" t="s">
+    </row>
+    <row r="101" spans="2:6">
+      <c r="B101" s="34"/>
+    </row>
+    <row r="102" spans="2:6">
+      <c r="B102" s="34"/>
+      <c r="C102" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6">
+      <c r="B103" s="34"/>
+      <c r="C103" t="s">
+        <v>39</v>
+      </c>
+      <c r="D103" t="s">
         <v>55</v>
       </c>
-      <c r="F80" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="81" spans="2:6">
-      <c r="B81" s="28"/>
-      <c r="C81" t="s">
-        <v>30</v>
-      </c>
-      <c r="D81" t="s">
-        <v>57</v>
-      </c>
-      <c r="E81" t="s">
-        <v>53</v>
-      </c>
-      <c r="F81" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="82" spans="2:6">
-      <c r="B82" s="28"/>
-      <c r="C82" t="s">
-        <v>31</v>
-      </c>
-      <c r="D82" t="s">
-        <v>58</v>
-      </c>
-      <c r="E82" t="s">
-        <v>53</v>
-      </c>
-      <c r="F82" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="83" spans="2:6">
-      <c r="B83" s="28"/>
-      <c r="C83" t="s">
+      <c r="E103" t="s">
+        <v>50</v>
+      </c>
+      <c r="F103" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6">
+      <c r="B104" s="34"/>
+      <c r="C104" t="s">
+        <v>40</v>
+      </c>
+      <c r="D104" t="s">
+        <v>45</v>
+      </c>
+      <c r="E104" t="s">
+        <v>55</v>
+      </c>
+      <c r="F104" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6">
+      <c r="B105" s="34"/>
+    </row>
+    <row r="106" spans="2:6">
+      <c r="B106" s="34"/>
+      <c r="C106" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6">
+      <c r="B107" s="34"/>
+      <c r="C107" t="s">
         <v>32</v>
       </c>
-      <c r="D83" t="s">
-        <v>56</v>
-      </c>
-      <c r="E83" t="s">
-        <v>53</v>
-      </c>
-      <c r="F83" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="84" spans="2:6">
-      <c r="B84" s="28"/>
-      <c r="C84" t="s">
+      <c r="D107" t="s">
+        <v>55</v>
+      </c>
+      <c r="E107" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6">
+      <c r="B108" s="34"/>
+      <c r="C108" t="s">
+        <v>34</v>
+      </c>
+      <c r="D108" t="s">
+        <v>50</v>
+      </c>
+      <c r="E108" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="109" spans="2:6">
+      <c r="B109" s="34"/>
+      <c r="C109" t="s">
         <v>33</v>
       </c>
-      <c r="D84" t="s">
-        <v>51</v>
-      </c>
-      <c r="E84" t="s">
-        <v>59</v>
-      </c>
-      <c r="F84" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="85" spans="2:6">
-      <c r="B85" s="28"/>
-      <c r="C85" t="s">
-        <v>34</v>
-      </c>
-      <c r="D85" t="s">
-        <v>56</v>
-      </c>
-      <c r="E85" t="s">
-        <v>53</v>
-      </c>
-      <c r="F85" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="86" spans="2:6">
-      <c r="B86" s="28"/>
-      <c r="C86" t="s">
-        <v>35</v>
-      </c>
-      <c r="D86" t="s">
-        <v>51</v>
-      </c>
-      <c r="E86" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="87" spans="2:6">
-      <c r="B87" s="28"/>
-      <c r="C87" t="s">
-        <v>36</v>
-      </c>
-      <c r="D87" t="s">
-        <v>51</v>
-      </c>
-      <c r="E87" t="s">
-        <v>53</v>
-      </c>
-      <c r="F87" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="88" spans="2:6">
-      <c r="B88" s="28"/>
-      <c r="C88" t="s">
-        <v>65</v>
-      </c>
-      <c r="D88" t="s">
-        <v>51</v>
-      </c>
-      <c r="E88" t="s">
-        <v>53</v>
-      </c>
-      <c r="F88" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="89" spans="2:6">
-      <c r="B89" s="28"/>
-    </row>
-    <row r="90" spans="2:6">
-      <c r="B90" s="28"/>
-      <c r="C90" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="91" spans="2:6">
-      <c r="B91" s="28"/>
-      <c r="C91" t="s">
-        <v>39</v>
-      </c>
-      <c r="D91" t="s">
-        <v>56</v>
-      </c>
-      <c r="E91" t="s">
-        <v>53</v>
-      </c>
-      <c r="F91" t="s">
+      <c r="D109" t="s">
+        <v>55</v>
+      </c>
+      <c r="E109" t="s">
+        <v>45</v>
+      </c>
+      <c r="F109" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="92" spans="2:6">
-      <c r="B92" s="28"/>
-      <c r="C92" t="s">
-        <v>37</v>
-      </c>
-      <c r="D92" t="s">
-        <v>61</v>
-      </c>
-      <c r="E92" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="93" spans="2:6">
-      <c r="B93" s="28"/>
-      <c r="C93" t="s">
-        <v>40</v>
-      </c>
-      <c r="D93" t="s">
-        <v>56</v>
-      </c>
-      <c r="E93" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="94" spans="2:6">
-      <c r="B94" s="28"/>
-      <c r="C94" t="s">
-        <v>38</v>
-      </c>
-      <c r="D94" t="s">
-        <v>61</v>
-      </c>
-      <c r="E94" t="s">
-        <v>51</v>
-      </c>
-      <c r="F94" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="95" spans="2:6">
-      <c r="B95" s="28"/>
-    </row>
-    <row r="96" spans="2:6">
-      <c r="B96" s="28"/>
-      <c r="C96" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="97" spans="2:6">
-      <c r="B97" s="28"/>
-      <c r="C97" t="s">
-        <v>41</v>
-      </c>
-      <c r="D97" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="98" spans="2:6">
-      <c r="B98" s="28"/>
-      <c r="C98" t="s">
-        <v>42</v>
-      </c>
-      <c r="D98" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="99" spans="2:6">
-      <c r="B99" s="28"/>
-      <c r="C99" t="s">
-        <v>43</v>
-      </c>
-      <c r="D99" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="100" spans="2:6">
-      <c r="B100" s="28"/>
-      <c r="C100" t="s">
-        <v>44</v>
-      </c>
-      <c r="D100" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="101" spans="2:6">
-      <c r="B101" s="28"/>
-    </row>
-    <row r="102" spans="2:6">
-      <c r="B102" s="28"/>
-      <c r="C102" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="103" spans="2:6">
-      <c r="B103" s="28"/>
-      <c r="C103" t="s">
-        <v>45</v>
-      </c>
-      <c r="D103" t="s">
-        <v>61</v>
-      </c>
-      <c r="E103" t="s">
-        <v>56</v>
-      </c>
-      <c r="F103" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="104" spans="2:6">
-      <c r="B104" s="28"/>
-      <c r="C104" t="s">
-        <v>46</v>
-      </c>
-      <c r="D104" t="s">
-        <v>51</v>
-      </c>
-      <c r="E104" t="s">
-        <v>61</v>
-      </c>
-      <c r="F104" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="105" spans="2:6">
-      <c r="B105" s="28"/>
-    </row>
-    <row r="106" spans="2:6">
-      <c r="B106" s="28"/>
-      <c r="C106" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="107" spans="2:6">
-      <c r="B107" s="28"/>
-      <c r="C107" t="s">
-        <v>38</v>
-      </c>
-      <c r="D107" t="s">
-        <v>61</v>
-      </c>
-      <c r="E107" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="108" spans="2:6">
-      <c r="B108" s="28"/>
-      <c r="C108" t="s">
-        <v>40</v>
-      </c>
-      <c r="D108" t="s">
-        <v>56</v>
-      </c>
-      <c r="E108" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="109" spans="2:6">
-      <c r="B109" s="28"/>
-      <c r="C109" t="s">
-        <v>39</v>
-      </c>
-      <c r="D109" t="s">
-        <v>61</v>
-      </c>
-      <c r="E109" t="s">
-        <v>51</v>
-      </c>
-      <c r="F109" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2499,7 +2493,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2507,13 +2501,13 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="18" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B3" s="9"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="10" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B4" s="9"/>
     </row>
@@ -2531,7 +2525,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="10" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B8" s="9"/>
     </row>
@@ -2549,7 +2543,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="10" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B12" s="9"/>
     </row>
@@ -2567,7 +2561,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="10" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B16" s="9"/>
     </row>
@@ -2589,13 +2583,13 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="17" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B22" s="11"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="12" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B23" s="11"/>
     </row>
@@ -2613,7 +2607,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="12" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B27" s="11"/>
     </row>
@@ -2631,7 +2625,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="12" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B31" s="11"/>
     </row>
@@ -2649,7 +2643,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="12" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B35" s="11"/>
     </row>
@@ -2671,13 +2665,13 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="13" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B41" s="13"/>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="14" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B42" s="13"/>
     </row>
@@ -2695,7 +2689,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="14" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B46" s="13"/>
     </row>
@@ -2713,7 +2707,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="14" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B50" s="13"/>
     </row>
@@ -2731,7 +2725,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="14" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B54" s="13"/>
     </row>
@@ -2752,14 +2746,14 @@
       <c r="B58" s="13"/>
     </row>
     <row r="60" spans="1:2" ht="43.15" customHeight="1">
-      <c r="A60" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="B60" s="29"/>
+      <c r="A60" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="B60" s="35"/>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="20" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B61" s="19"/>
     </row>
@@ -2777,7 +2771,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="20" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B65" s="19"/>
     </row>
@@ -2795,7 +2789,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="20" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B69" s="19"/>
     </row>
@@ -2813,7 +2807,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="20" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B73" s="19"/>
     </row>
@@ -2835,13 +2829,13 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="15" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B79" s="15"/>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="16" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B80" s="15"/>
     </row>
@@ -2859,7 +2853,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="16" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B84" s="15"/>
     </row>
@@ -2877,7 +2871,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="16" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B88" s="15"/>
     </row>
@@ -2895,7 +2889,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="16" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B92" s="15"/>
     </row>
